--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia\Desktop\Тестирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2697D37A-5739-4CE0-9A12-E37D67300558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C2FD51-7253-431E-9EFD-8BA946ADA098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02A70DE2-0ED0-4C69-B815-7B4F0465F562}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
   <si>
     <t xml:space="preserve">Название </t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Уменьшить масштаб страницы на 33 в разделе доставка</t>
-  </si>
-  <si>
-    <t>Фото</t>
   </si>
   <si>
     <t>Авторизация по коду с валидными данными</t>
@@ -364,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -378,14 +375,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -728,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F982B767-640E-41F3-9A93-EAFC64CD672E}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,10 +730,9 @@
     <col min="1" max="1" width="56.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="62.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,23 +742,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -776,109 +762,109 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -886,7 +872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -896,68 +882,68 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>111111111111111</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -983,13 +969,13 @@
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,57 +991,57 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,16 +1050,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
@@ -1087,12 +1073,12 @@
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1167,18 +1153,18 @@
     </row>
     <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
@@ -1186,7 +1172,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
@@ -1194,7 +1180,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
@@ -1202,7 +1188,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
@@ -1210,7 +1196,7 @@
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
@@ -1218,7 +1204,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>3</v>
@@ -1226,23 +1212,23 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>3</v>
@@ -1250,7 +1236,7 @@
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>3</v>
@@ -1258,7 +1244,7 @@
     </row>
     <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>3</v>
@@ -1266,7 +1252,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>3</v>
@@ -1274,7 +1260,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
@@ -1282,23 +1268,23 @@
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>3</v>
@@ -1306,7 +1292,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>3</v>
@@ -1314,7 +1300,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>3</v>
@@ -1322,7 +1308,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>3</v>
@@ -1330,7 +1316,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>3</v>
@@ -1338,7 +1324,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>3</v>
@@ -1346,7 +1332,7 @@
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>3</v>
@@ -1354,17 +1340,17 @@
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B40:B1048576 B1:B38">
+  <conditionalFormatting sqref="B1:B38 B40:B1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="провален">
       <formula>NOT(ISERROR(SEARCH("провален",B1)))</formula>
     </cfRule>

--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia\Desktop\Тестирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C2FD51-7253-431E-9EFD-8BA946ADA098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B7654-9330-4797-9637-212F9485EF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02A70DE2-0ED0-4C69-B815-7B4F0465F562}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{02A70DE2-0ED0-4C69-B815-7B4F0465F562}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек лист" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t xml:space="preserve">Название </t>
   </si>
@@ -48,60 +48,30 @@
     <t>Уменьшить масштаб карты на "-" в разделе магазины</t>
   </si>
   <si>
-    <t>Проверить ссылки на соц сети в футере</t>
-  </si>
-  <si>
-    <t>Добавить товар в корзину</t>
-  </si>
-  <si>
-    <t>Ввести буквы в поле количество товара</t>
-  </si>
-  <si>
-    <t>Поделиться товаром в разделе Корзина</t>
-  </si>
-  <si>
     <t>Ввести количество товара в корзине 1000 штук</t>
   </si>
   <si>
     <t>Ввести количество товара в корзине -10 штук</t>
   </si>
   <si>
-    <t>Ввести количество товара в корзине 0 штук</t>
-  </si>
-  <si>
     <t>Корзина</t>
   </si>
   <si>
     <t>Магазины</t>
   </si>
   <si>
-    <t>Увеличить масштаб сайта на 270</t>
-  </si>
-  <si>
-    <t>Уменьшить масштаб сайта на 30</t>
-  </si>
-  <si>
     <t>Авторизация</t>
   </si>
   <si>
-    <t>Уменьшить масштаб раздела магазины на 50</t>
-  </si>
-  <si>
     <t>Футер не привязан к низу страницы</t>
   </si>
   <si>
     <t>Доставка</t>
   </si>
   <si>
-    <t>Масштабировать раздел доставка на 300</t>
-  </si>
-  <si>
     <t>Карта не отображает никакие данные</t>
   </si>
   <si>
-    <t>Уменьшить масштаб страницы на 33 в разделе доставка</t>
-  </si>
-  <si>
     <t>Авторизация по коду с валидными данными</t>
   </si>
   <si>
@@ -141,15 +111,6 @@
     <t>Окно с вводом адреса перекрывает весь сайт</t>
   </si>
   <si>
-    <t>Увеличить масштаб раздела на 300 и вернуть обратно на 100</t>
-  </si>
-  <si>
-    <t>Оплатить товар в корзине</t>
-  </si>
-  <si>
-    <t>Открыть сайт на половину экрана</t>
-  </si>
-  <si>
     <t>При открытии сайта на половину экрана (начиная с 991x276 пикселей) слетает шапка с выбором категорий и разделов сайта</t>
   </si>
   <si>
@@ -165,33 +126,18 @@
     <t>Максимальная и минимальная цены меняются местами</t>
   </si>
   <si>
-    <t>Выбрать магазин из списка</t>
-  </si>
-  <si>
     <t>Переход к странице с описанием и адресом магазина</t>
   </si>
   <si>
     <t>Поиск микроволновки</t>
   </si>
   <si>
-    <t>Поиск магазина по улице</t>
-  </si>
-  <si>
     <t>Каменск-Уральский</t>
   </si>
   <si>
     <t>Суворова</t>
   </si>
   <si>
-    <t>Исчезают списки магазинов и остается только карта, нельзя переключиться между списками и картой</t>
-  </si>
-  <si>
-    <t>Ввести адрес для расчета доставки малогабаритных грузов</t>
-  </si>
-  <si>
-    <t>Выбрать адрес на карте для расчета доставки крупногабаритных грузов</t>
-  </si>
-  <si>
     <t>Поиск валидного значения товара кириллицей</t>
   </si>
   <si>
@@ -219,103 +165,166 @@
     <t>В двух вкладках у авторизованного пользователя открыта корзина с одним добавленным товаром, товар удаляется из одной вкладки, во второй товар оформляется как будто не был удален, даже после обновления страницы</t>
   </si>
   <si>
-    <t>Выбрать город магазина</t>
-  </si>
-  <si>
-    <t>Масштабировать страницу магазины в разделе списки</t>
-  </si>
-  <si>
-    <t>Увеличить количество товара в корзине на "+"</t>
-  </si>
-  <si>
-    <t>Уменьшить количество товара в корзине на "-" до нулевого значения</t>
-  </si>
-  <si>
     <t>Сравнение</t>
   </si>
   <si>
     <t>1) https://www.dns-shop.ru/product/2791553c24a5d582/processor-amd-ryzen-7-9700x-oem/  2) https://www.dns-shop.ru/product/3ecad0b7a46fed20/processor-amd-ryzen-7-7800x3d-oem/</t>
   </si>
   <si>
-    <t>Добавить два процессора для сравнения</t>
-  </si>
-  <si>
-    <t>Фильтровать характеристики только по различающимся</t>
-  </si>
-  <si>
-    <t>Просмотреть популярный отзыв в разделе оценки пользователей</t>
-  </si>
-  <si>
-    <t>Перейти в раздел Анализ характеристик в подраздел общее</t>
-  </si>
-  <si>
-    <t>Добавить в корзину из раздела сравнение</t>
-  </si>
-  <si>
-    <t>Добавить в избранное из раздела сравнение</t>
-  </si>
-  <si>
     <t>Избранное</t>
   </si>
   <si>
-    <t>Добавить товар в избранное</t>
-  </si>
-  <si>
-    <t>Удалить товар из избранного</t>
-  </si>
-  <si>
-    <t>Добавить товар в корзину из избранного</t>
-  </si>
-  <si>
-    <t>Добавить товар в раздел сравнить из избранного</t>
-  </si>
-  <si>
-    <t>Удалить из раздела сравнить из избранного</t>
-  </si>
-  <si>
-    <t>Перейти в отзывы из раздела избранное</t>
-  </si>
-  <si>
-    <t>Удалить товар из корзины через функцию очистить список</t>
-  </si>
-  <si>
-    <t>Удалить товар из корзины кнопкой корзины</t>
-  </si>
-  <si>
-    <t>Сортировка по возрастанию цены + Фильтрация по наличию в разделе избранное</t>
-  </si>
-  <si>
-    <t>Поделиться товаром из раздела избранное в ВК</t>
-  </si>
-  <si>
     <t>{"error":"invalid_request","error_description":"redirect_uri is incorrect"}</t>
   </si>
   <si>
-    <t>Поделиться товаром из корзины</t>
-  </si>
-  <si>
-    <t>Поделиться товаром из раздела сравение в ВК</t>
-  </si>
-  <si>
     <t>Восстановить пароль существующего пользователя</t>
   </si>
   <si>
     <t>Логин: 89957387885. После создания нового пароля появляется окно об ошибке, при этом пишет что пароль изменен</t>
   </si>
   <si>
-    <t>Масштабировать страницу на 200 перейти в раздел карты и вернуть масштаб на 100</t>
-  </si>
-  <si>
-    <t>Масштабировать страницу магазины и выбрать раздел карты</t>
-  </si>
-  <si>
     <t>Масштабировать страницу на 200 перейти из раздела списки в раздел карты и вернуть масштаб на 100%. РЕЗУЛЬТАТ: Исчезают списки магазинов и остается только карта, нельзя переключиться между списками и картой</t>
   </si>
   <si>
     <t xml:space="preserve">Масштабировать на 200 и вернуть масштаб на 100. РЕЗУЛЬТАТ: Исчезает карта </t>
   </si>
   <si>
-    <t>Оформить товар из корзины, который удален из нее во второй вкладке</t>
+    <t>Восстановить пароль не существующего пользователя</t>
+  </si>
+  <si>
+    <t>email: onasta562@gmail.cu</t>
+  </si>
+  <si>
+    <t>Проверка отображения интерфейса при ширине окна 50%</t>
+  </si>
+  <si>
+    <t>Проверка стабильности UI при масштабировании и смене разделов</t>
+  </si>
+  <si>
+    <t>Масштабировать страницу на 200 перейти в раздел карты и сбросить масштаб на 100. Исчезают списки магазинов и остается только карта, нельзя переключиться между списками и картой</t>
+  </si>
+  <si>
+    <t>Выбор магазина из списка</t>
+  </si>
+  <si>
+    <t>Выбор города для отображения магазинов</t>
+  </si>
+  <si>
+    <t>Поиск магазина по названию улицы</t>
+  </si>
+  <si>
+    <t>Масштабирование раздела Списки на странице Магазины</t>
+  </si>
+  <si>
+    <t>Масштабирование страницы Магазины и переход в раздел Карты</t>
+  </si>
+  <si>
+    <t>Расчет стоимости доставки малогабаритных грузов по введенному адресу</t>
+  </si>
+  <si>
+    <t>Расчет доставки крупногабаритных грузов по выбранной точке на карте</t>
+  </si>
+  <si>
+    <t>Увеличить масштаб сайта до 270%</t>
+  </si>
+  <si>
+    <t>Уменьшить масштаб сайта до 30%</t>
+  </si>
+  <si>
+    <t>Уменьшить масштаб раздела магазины до 50%</t>
+  </si>
+  <si>
+    <t>Масштабирование страницы Доставка до 300% и сброс до 100%</t>
+  </si>
+  <si>
+    <t>Масштабирование страницы Доставка до 300%</t>
+  </si>
+  <si>
+    <t>Масштабирование страницы Доставка до 33%</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину</t>
+  </si>
+  <si>
+    <t>Ввод большого количества товара в корзине</t>
+  </si>
+  <si>
+    <t>Ввод отрицательного количества товара в корзине</t>
+  </si>
+  <si>
+    <t>Ввод нулевого количества товара в корзине</t>
+  </si>
+  <si>
+    <t>Ввести буквы в поле количество товара - ааа</t>
+  </si>
+  <si>
+    <t>Ввод нечисловых значений в количество товаров</t>
+  </si>
+  <si>
+    <t>Поделиться товаром из Корзины</t>
+  </si>
+  <si>
+    <t>Оформление товара, удаленного в другой вкладке</t>
+  </si>
+  <si>
+    <t>Оплата товара в корзине</t>
+  </si>
+  <si>
+    <t>Удаление товара кнопкой корзины</t>
+  </si>
+  <si>
+    <t>Удаление товаров из корзины функцией Очистить список</t>
+  </si>
+  <si>
+    <t>Уменьшение количества товара на "-" до нуля</t>
+  </si>
+  <si>
+    <t>Увеличение количества товара на "+"</t>
+  </si>
+  <si>
+    <t>Добавление двух товаров для сравнения</t>
+  </si>
+  <si>
+    <t>Фильтрация характеристик только по различающимся</t>
+  </si>
+  <si>
+    <t>Просмотр самого популярного отзыва в разделе оценки пользователей</t>
+  </si>
+  <si>
+    <t>Переход в подраздел Общее в анализе характеристик</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину из раздела Сравнение</t>
+  </si>
+  <si>
+    <t>Добавление товара в избранное из раздела Сравнение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поделиться товаром в ВК из раздела Сравнение </t>
+  </si>
+  <si>
+    <t>Добавить товар в избранное из Каталога</t>
+  </si>
+  <si>
+    <t>Удаление товара из избранного</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину из избранного</t>
+  </si>
+  <si>
+    <t>Добавление товара в раздел Сравнить из Избранного</t>
+  </si>
+  <si>
+    <t>Удаление из раздела Сравнение в разделе Избранное</t>
+  </si>
+  <si>
+    <t>Переход к отзывам товара из Избранного</t>
+  </si>
+  <si>
+    <t>Сортировка по возрастанию цены + Фильтрация по наличию в разделе Избранное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поделиться товаром в ВК из раздела Избранное </t>
   </si>
 </sst>
 </file>
@@ -719,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F982B767-640E-41F3-9A93-EAFC64CD672E}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,120 +754,123 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -866,7 +878,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -874,7 +886,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -882,51 +894,51 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
@@ -937,18 +949,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -967,91 +979,91 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
@@ -1059,7 +1071,7 @@
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
@@ -1067,45 +1079,45 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
@@ -1113,23 +1125,29 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>3</v>
@@ -1137,15 +1155,18 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>3</v>
@@ -1153,18 +1174,18 @@
     </row>
     <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
@@ -1172,7 +1193,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
@@ -1180,7 +1201,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
@@ -1188,63 +1209,63 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="B56" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>3</v>
@@ -1252,39 +1273,39 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>87</v>
+      <c r="C59" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>76</v>
+      <c r="A61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>3</v>
@@ -1292,7 +1313,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>3</v>
@@ -1300,7 +1321,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>3</v>
@@ -1308,7 +1329,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>3</v>
@@ -1316,15 +1337,15 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>3</v>
@@ -1332,21 +1353,13 @@
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>87</v>
+      <c r="C68" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia\Desktop\Тестирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B7654-9330-4797-9637-212F9485EF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6416EC0C-16A9-4200-932A-A51198E1434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{02A70DE2-0ED0-4C69-B815-7B4F0465F562}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t xml:space="preserve">Название </t>
   </si>
@@ -48,12 +48,6 @@
     <t>Уменьшить масштаб карты на "-" в разделе магазины</t>
   </si>
   <si>
-    <t>Ввести количество товара в корзине 1000 штук</t>
-  </si>
-  <si>
-    <t>Ввести количество товара в корзине -10 штук</t>
-  </si>
-  <si>
     <t>Корзина</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Доставка</t>
   </si>
   <si>
-    <t>Карта не отображает никакие данные</t>
-  </si>
-  <si>
     <t>Авторизация по коду с валидными данными</t>
   </si>
   <si>
@@ -93,27 +84,6 @@
     <t>Авторизация по паролю с пустым полем пароль</t>
   </si>
   <si>
-    <t>Логин: 89957387885 Пароль Qdfgtyh5678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Логин: 89957387885 Код 333333 </t>
-  </si>
-  <si>
-    <t>Логин: 00000000000</t>
-  </si>
-  <si>
-    <t>Логин: 89957387885 Пароль Qdfgtyh1111</t>
-  </si>
-  <si>
-    <t>Логин: 89957387885</t>
-  </si>
-  <si>
-    <t>Окно с вводом адреса перекрывает весь сайт</t>
-  </si>
-  <si>
-    <t>При открытии сайта на половину экрана (начиная с 991x276 пикселей) слетает шапка с выбором категорий и разделов сайта</t>
-  </si>
-  <si>
     <t>Каталог товаров главной страницы</t>
   </si>
   <si>
@@ -123,21 +93,6 @@
     <t>Фильтровать товары по цене от 20 000 до 10 000</t>
   </si>
   <si>
-    <t>Максимальная и минимальная цены меняются местами</t>
-  </si>
-  <si>
-    <t>Переход к странице с описанием и адресом магазина</t>
-  </si>
-  <si>
-    <t>Поиск микроволновки</t>
-  </si>
-  <si>
-    <t>Каменск-Уральский</t>
-  </si>
-  <si>
-    <t>Суворова</t>
-  </si>
-  <si>
     <t>Поиск валидного значения товара кириллицей</t>
   </si>
   <si>
@@ -147,18 +102,9 @@
     <t>Поиск валидного значения латиницей</t>
   </si>
   <si>
-    <t xml:space="preserve">Найден товар содержащий в названии слово microwave </t>
-  </si>
-  <si>
     <t xml:space="preserve">Поиск невалидного значения </t>
   </si>
   <si>
-    <t>vbrhjdjkyjdrf - Нашлись микроволновки</t>
-  </si>
-  <si>
-    <t>Валенок - нашлись пленки для ламинирования</t>
-  </si>
-  <si>
     <t>Поиск цифрового значения</t>
   </si>
   <si>
@@ -168,9 +114,6 @@
     <t>Сравнение</t>
   </si>
   <si>
-    <t>1) https://www.dns-shop.ru/product/2791553c24a5d582/processor-amd-ryzen-7-9700x-oem/  2) https://www.dns-shop.ru/product/3ecad0b7a46fed20/processor-amd-ryzen-7-7800x3d-oem/</t>
-  </si>
-  <si>
     <t>Избранное</t>
   </si>
   <si>
@@ -180,27 +123,12 @@
     <t>Восстановить пароль существующего пользователя</t>
   </si>
   <si>
-    <t>Логин: 89957387885. После создания нового пароля появляется окно об ошибке, при этом пишет что пароль изменен</t>
-  </si>
-  <si>
-    <t>Масштабировать страницу на 200 перейти из раздела списки в раздел карты и вернуть масштаб на 100%. РЕЗУЛЬТАТ: Исчезают списки магазинов и остается только карта, нельзя переключиться между списками и картой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Масштабировать на 200 и вернуть масштаб на 100. РЕЗУЛЬТАТ: Исчезает карта </t>
-  </si>
-  <si>
     <t>Восстановить пароль не существующего пользователя</t>
   </si>
   <si>
-    <t>email: onasta562@gmail.cu</t>
-  </si>
-  <si>
     <t>Проверка отображения интерфейса при ширине окна 50%</t>
   </si>
   <si>
-    <t>Проверка стабильности UI при масштабировании и смене разделов</t>
-  </si>
-  <si>
     <t>Масштабировать страницу на 200 перейти в раздел карты и сбросить масштаб на 100. Исчезают списки магазинов и остается только карта, нельзя переключиться между списками и картой</t>
   </si>
   <si>
@@ -213,30 +141,12 @@
     <t>Поиск магазина по названию улицы</t>
   </si>
   <si>
-    <t>Масштабирование раздела Списки на странице Магазины</t>
-  </si>
-  <si>
-    <t>Масштабирование страницы Магазины и переход в раздел Карты</t>
-  </si>
-  <si>
     <t>Расчет стоимости доставки малогабаритных грузов по введенному адресу</t>
   </si>
   <si>
     <t>Расчет доставки крупногабаритных грузов по выбранной точке на карте</t>
   </si>
   <si>
-    <t>Увеличить масштаб сайта до 270%</t>
-  </si>
-  <si>
-    <t>Уменьшить масштаб сайта до 30%</t>
-  </si>
-  <si>
-    <t>Уменьшить масштаб раздела магазины до 50%</t>
-  </si>
-  <si>
-    <t>Масштабирование страницы Доставка до 300% и сброс до 100%</t>
-  </si>
-  <si>
     <t>Масштабирование страницы Доставка до 300%</t>
   </si>
   <si>
@@ -255,9 +165,6 @@
     <t>Ввод нулевого количества товара в корзине</t>
   </si>
   <si>
-    <t>Ввести буквы в поле количество товара - ааа</t>
-  </si>
-  <si>
     <t>Ввод нечисловых значений в количество товаров</t>
   </si>
   <si>
@@ -267,15 +174,9 @@
     <t>Оформление товара, удаленного в другой вкладке</t>
   </si>
   <si>
-    <t>Оплата товара в корзине</t>
-  </si>
-  <si>
     <t>Удаление товара кнопкой корзины</t>
   </si>
   <si>
-    <t>Удаление товаров из корзины функцией Очистить список</t>
-  </si>
-  <si>
     <t>Уменьшение количества товара на "-" до нуля</t>
   </si>
   <si>
@@ -288,9 +189,6 @@
     <t>Фильтрация характеристик только по различающимся</t>
   </si>
   <si>
-    <t>Просмотр самого популярного отзыва в разделе оценки пользователей</t>
-  </si>
-  <si>
     <t>Переход в подраздел Общее в анализе характеристик</t>
   </si>
   <si>
@@ -325,13 +223,49 @@
   </si>
   <si>
     <t xml:space="preserve">Поделиться товаром в ВК из раздела Избранное </t>
+  </si>
+  <si>
+    <t>Масштабирование раздела магазины до 50%</t>
+  </si>
+  <si>
+    <t>Удаление выбранного товара из корзины</t>
+  </si>
+  <si>
+    <t>Удаление товара из Сравнения</t>
+  </si>
+  <si>
+    <t>Удаление всех товаров из Сравнения</t>
+  </si>
+  <si>
+    <t>Масштабирование раздела магазины до 200% и смена подраздела</t>
+  </si>
+  <si>
+    <t>Увеличить масштаб страницы до 270%</t>
+  </si>
+  <si>
+    <t>Уменьшить масштаб страницы до 30%</t>
+  </si>
+  <si>
+    <t>При увеличении масштаба - окно с вводом адреса перекрывает все элементы сайта, При сбросе масштаба до 100% - карта не отображает никакие данные</t>
+  </si>
+  <si>
+    <t>Колчество товара возвращает значение 1, вместо удаления</t>
+  </si>
+  <si>
+    <t>После создания нового пароля появляется окно об ошибке, при этом пишет что пароль изменен, и дальнейшая авторизация с новым паролем проходит успешно</t>
+  </si>
+  <si>
+    <t>При ширине окна браузера от 991 пикселя в DevTools, слетает шапка с выбором категорий и разделов сайта.</t>
+  </si>
+  <si>
+    <t>При поиске невалидного товара - нашлись совершенно другие товары, которые отличаются от запроса</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +278,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202020"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -370,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -389,6 +331,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F982B767-640E-41F3-9A93-EAFC64CD672E}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,47 +699,41 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>28</v>
+      <c r="C2" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -802,29 +741,23 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -832,45 +765,39 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -878,7 +805,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -886,7 +813,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -894,73 +821,59 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6">
-        <v>111111111111111</v>
-      </c>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,227 +894,200 @@
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>52</v>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>9</v>
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>3</v>
+      <c r="A48" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
@@ -1209,7 +1095,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
@@ -1217,87 +1103,87 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>3</v>
+      <c r="A57" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>48</v>
+      <c r="A60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>3</v>
@@ -1305,7 +1191,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>3</v>
@@ -1313,57 +1199,33 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>49</v>
+      <c r="C65" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B38 B40:B1048576">
+  <conditionalFormatting sqref="B1:B35 B37:B1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="провален">
       <formula>NOT(ISERROR(SEARCH("провален",B1)))</formula>
     </cfRule>
